--- a/code/balcon2_no_numa.xlsx
+++ b/code/balcon2_no_numa.xlsx
@@ -505,19 +505,19 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.03125</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -575,19 +575,19 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>332</v>
+        <v>22</v>
       </c>
       <c r="H4" t="n">
-        <v>343</v>
+        <v>22</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1396484375</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -610,19 +610,19 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>319</v>
+        <v>21</v>
       </c>
       <c r="H5" t="n">
-        <v>327</v>
+        <v>21</v>
       </c>
       <c r="I5" t="n">
-        <v>0.123046875</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -645,19 +645,19 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1064453125</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -680,10 +680,10 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="H8" t="n">
-        <v>267</v>
+        <v>20</v>
       </c>
       <c r="I8" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -750,19 +750,19 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05078125</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -785,19 +785,19 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>262</v>
+        <v>26</v>
       </c>
       <c r="H10" t="n">
-        <v>270</v>
+        <v>27</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1318359375</v>
+        <v>0.0146484375</v>
       </c>
       <c r="J10" t="n">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -820,10 +820,10 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -855,19 +855,19 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.0224609375</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -890,10 +890,10 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -925,19 +925,19 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="H14" t="n">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="I14" t="n">
-        <v>0.154296875</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -960,19 +960,19 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="I15" t="n">
-        <v>0.12890625</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -995,19 +995,19 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0.181640625</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1030,10 +1030,10 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1065,19 +1065,19 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1865234375</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,19 +1100,19 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0849609375</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1135,19 +1135,19 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="H20" t="n">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1875</v>
+        <v>0.0458984375</v>
       </c>
       <c r="J20" t="n">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="K20" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1170,10 +1170,10 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1205,19 +1205,19 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.0224609375</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1240,10 +1240,10 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1275,19 +1275,19 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="H24" t="n">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="I24" t="n">
-        <v>0.236328125</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1310,19 +1310,19 @@
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1962890625</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1345,19 +1345,19 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0.216796875</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1380,10 +1380,10 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1415,19 +1415,19 @@
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2861328125</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1450,19 +1450,19 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0849609375</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1485,19 +1485,19 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="H30" t="n">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2958984375</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1520,10 +1520,10 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1555,10 +1555,10 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1625,19 +1625,19 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="H34" t="n">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="I34" t="n">
-        <v>0.35546875</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1660,19 +1660,19 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="H35" t="n">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="I35" t="n">
-        <v>0.34375</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1695,19 +1695,19 @@
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.32421875</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1730,10 +1730,10 @@
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1765,19 +1765,19 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="H38" t="n">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="I38" t="n">
-        <v>0.310546875</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1800,19 +1800,19 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.146484375</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1835,19 +1835,19 @@
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="H40" t="n">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="I40" t="n">
-        <v>0.3095703125</v>
+        <v>0.1083984375</v>
       </c>
       <c r="J40" t="n">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="K40" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
